--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999999999973</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.9999999999999973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.822615806588104E-07</v>
+        <v>2.50121850521859E-06</v>
       </c>
       <c r="E3">
-        <v>2.822615806588104E-07</v>
+        <v>2.50121850521859E-06</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.440568896413881E-09</v>
+        <v>7.826577561566211E-06</v>
       </c>
       <c r="E4">
-        <v>1.440568896413881E-09</v>
+        <v>7.826577561566211E-06</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.3383952867100443</v>
+        <v>0.03953455114500491</v>
       </c>
       <c r="E5">
-        <v>0.3383952867100443</v>
+        <v>0.03953455114500491</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2.367953347509932E-17</v>
+        <v>2.615731264744623E-22</v>
       </c>
       <c r="E6">
-        <v>2.367953347509932E-17</v>
+        <v>2.615731264744623E-22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999997948328</v>
+        <v>0.9999999999443041</v>
       </c>
       <c r="E7">
-        <v>2.051672165492846E-10</v>
+        <v>5.569589234255545E-11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.465818123081449E-06</v>
+        <v>1.02496365851681E-09</v>
       </c>
       <c r="E8">
-        <v>0.9999985341818769</v>
+        <v>0.9999999989750363</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.951920268043439E-06</v>
+        <v>1.164990038683197E-05</v>
       </c>
       <c r="E9">
-        <v>0.9999940480797319</v>
+        <v>0.9999883500996132</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9999028389850516</v>
+        <v>0.9999820694967964</v>
       </c>
       <c r="E10">
-        <v>9.716101494838814E-05</v>
+        <v>1.793050320364475E-05</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.007120602550007907</v>
+        <v>0.9873128950275537</v>
       </c>
       <c r="E11">
-        <v>0.9928793974499921</v>
+        <v>0.01268710497244629</v>
       </c>
       <c r="F11">
-        <v>6.439722537994385</v>
+        <v>8.150106430053711</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
